--- a/LMS-TBB-BDD-PHASE2/TestData/Assignment.xlsx
+++ b/LMS-TBB-BDD-PHASE2/TestData/Assignment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>assignmentName</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>path5.json</t>
+  </si>
+  <si>
+    <t>SDET-Selenium</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>DA Assignment</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>2020-09-20T21:00:09.853+00:00</t>
+  </si>
+  <si>
+    <t>path1</t>
+  </si>
+  <si>
+    <t>path2</t>
+  </si>
+  <si>
+    <t>pathfs</t>
+  </si>
+  <si>
+    <t>path4dsgf</t>
+  </si>
+  <si>
+    <t>path5.fgd</t>
   </si>
 </sst>
 </file>
@@ -459,7 +489,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
+    <col customWidth="1" min="6" max="6" width="23.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -567,6 +597,58 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/LMS-TBB-BDD-PHASE2/TestData/Assignment.xlsx
+++ b/LMS-TBB-BDD-PHASE2/TestData/Assignment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>assignmentName</t>
   </si>
@@ -47,6 +47,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>fields</t>
+  </si>
+  <si>
     <t>Program Name</t>
   </si>
   <si>
@@ -122,13 +125,19 @@
     <t>path5.json</t>
   </si>
   <si>
+    <t>ValidMandatory</t>
+  </si>
+  <si>
     <t>SDET-Selenium</t>
   </si>
   <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>DA Assignment</t>
+    <t>InvalidMandatory</t>
+  </si>
+  <si>
+    <t>xfg</t>
+  </si>
+  <si>
+    <t>SDET-DA</t>
   </si>
   <si>
     <t>User</t>
@@ -137,6 +146,21 @@
     <t>2020-09-20T21:00:09.853+00:00</t>
   </si>
   <si>
+    <t>ValidAll</t>
+  </si>
+  <si>
+    <t>SDET-Selenium-</t>
+  </si>
+  <si>
+    <t>Selenium Assignment</t>
+  </si>
+  <si>
+    <t>InvalidOptional</t>
+  </si>
+  <si>
+    <t>Data Analysis Assignment</t>
+  </si>
+  <si>
     <t>path1</t>
   </si>
   <si>
@@ -150,13 +174,34 @@
   </si>
   <si>
     <t>path5.fgd</t>
+  </si>
+  <si>
+    <t>Missing Program</t>
+  </si>
+  <si>
+    <t>Missing Batch</t>
+  </si>
+  <si>
+    <t>Missing Assignment</t>
+  </si>
+  <si>
+    <t>Missing Due Date</t>
+  </si>
+  <si>
+    <t>Missing Grade</t>
+  </si>
+  <si>
+    <t>Passed Due Date</t>
+  </si>
+  <si>
+    <t>2022-09-20T21:00:09.853+00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,6 +218,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -205,6 +254,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -488,8 +543,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="6" max="6" width="23.75"/>
+    <col customWidth="1" min="1" max="1" width="16.13"/>
+    <col customWidth="1" min="5" max="5" width="21.0"/>
+    <col customWidth="1" min="7" max="7" width="23.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,28 +582,29 @@
       <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4">
         <v>3.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
@@ -561,28 +618,29 @@
       <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
         <v>6.0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>32</v>
@@ -596,57 +654,345 @@
       <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
         <v>5.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
